--- a/data/trans_bre/P18_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>141,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-12,01%</t>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>89,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>256,26%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 12,98</t>
+          <t>-10,16; 20,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 15,04</t>
+          <t>3,71; 21,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 15,28</t>
+          <t>-6,77; 13,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 15,07</t>
+          <t>4,19; 15,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -3,8</t>
+          <t>6,09; 20,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 36,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 226,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 108,26</t>
+          <t>-22,42; 72,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 171,23</t>
+          <t>19,04; 383,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-19,56; -4,78</t>
+          <t>-26,09; 89,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28,64; 185,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65,59; 879,21</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>31,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-36,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 9,6</t>
+          <t>-0,83; 15,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 5,74</t>
+          <t>-4,76; 7,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,05</t>
+          <t>-1,41; 8,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,4</t>
+          <t>-0,72; 8,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 0,54</t>
+          <t>-9,91; 0,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 38,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 89,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 67,4</t>
+          <t>-3,37; 83,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 91,32</t>
+          <t>-42,39; 122,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,59</t>
+          <t>-8,35; 82,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 100,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-63,52; 5,08</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>-20,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>73,23%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -0,38</t>
+          <t>-13,12; 3,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,52</t>
+          <t>-2,6; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 6,87</t>
+          <t>0,16; 9,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,78</t>
+          <t>-0,53; 5,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,92</t>
+          <t>-3,49; 3,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,67; -1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 45,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 92,3</t>
+          <t>-44,63; 17,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 138,28</t>
+          <t>-44,22; 181,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 8,91</t>
+          <t>-2,94; 197,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 137,66</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 122,85</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,44</t>
+          <t>-2,77; 6,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,3</t>
+          <t>-2,05; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,46</t>
+          <t>-3,35; 9,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -1,64</t>
+          <t>-3,65; 5,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 79,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 68,46</t>
+          <t>-8,05; 22,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 94,52</t>
+          <t>-18,91; 86,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -1,83</t>
+          <t>-16,45; 77,81</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-38,13; 104,87</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,28%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>56,0%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 5,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 6,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 7,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 7,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 3,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 21,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 88,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 64,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 94,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-15,51; 57,16</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
